--- a/tmp/CLICHÉS/CLICHÉS.doc-total-recap.xlsx
+++ b/tmp/CLICHÉS/CLICHÉS.doc-total-recap.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
